--- a/04-SHACL/Doremus-0.1-shacl.xlsx
+++ b/04-SHACL/Doremus-0.1-shacl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="19380" windowHeight="10980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="19380" windowHeight="10980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prefixes" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">properties!$B$1:$B$7</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="386">
   <si>
     <t>PREFIX</t>
   </si>
@@ -924,9 +924,6 @@
     <t>ecrm:P72_has_language</t>
   </si>
   <si>
-    <t>ecrm:E56_Language</t>
-  </si>
-  <si>
     <t>mus:U170_has_title_statement</t>
   </si>
   <si>
@@ -1074,9 +1071,6 @@
     <t>P148 has component</t>
   </si>
   <si>
-    <t>Properties on ecrm:E56_Language</t>
-  </si>
-  <si>
     <t>Properties on mus:M156_Title_Statement</t>
   </si>
   <si>
@@ -1110,13 +1104,7 @@
     <t>ecrm:P2_has_type</t>
   </si>
   <si>
-    <t>ecrm:E55_Type</t>
-  </si>
-  <si>
     <t>P2 has type</t>
-  </si>
-  <si>
-    <t>Properties on ecrm:P2_has_type</t>
   </si>
   <si>
     <t>label</t>
@@ -1210,7 +1198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1496,27 +1484,6 @@
       <family val="2"/>
     </font>
     <font>
-      <strike/>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <strike/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -1800,7 +1767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,7 +2004,7 @@
     <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="40" applyFont="1"/>
@@ -2180,7 +2147,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2205,25 +2171,6 @@
     <xf numFmtId="2" fontId="39" fillId="15" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="15" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2231,36 +2178,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="15" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="41" fillId="15" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="76" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="96">
     <cellStyle name="20 % - Accent1" xfId="49" builtinId="30" customBuiltin="1"/>
@@ -2846,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -2876,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
@@ -2981,7 +2928,7 @@
         <v>72</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="25" x14ac:dyDescent="0.5">
@@ -3043,8 +2990,8 @@
       <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="64" t="s">
-        <v>388</v>
+      <c r="G10" s="63" t="s">
+        <v>384</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>47</v>
@@ -3057,35 +3004,35 @@
       <c r="M10" s="4"/>
       <c r="N10" s="52"/>
     </row>
-    <row r="11" spans="1:15" s="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A11" s="79" t="s">
+    <row r="11" spans="1:15" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A11" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="89" t="s">
-        <v>389</v>
-      </c>
-      <c r="H11" s="79" t="s">
+      <c r="G11" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="90"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -3108,7 +3055,7 @@
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -3118,7 +3065,7 @@
       <c r="F13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="64"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="4" t="s">
         <v>47</v>
       </c>
@@ -3132,7 +3079,7 @@
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -3142,7 +3089,7 @@
       <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="64"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="4" t="s">
         <v>47</v>
       </c>
@@ -3155,8 +3102,8 @@
       <c r="N14" s="52"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A15" s="4" t="s">
-        <v>297</v>
+      <c r="A15" t="s">
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -3179,7 +3126,7 @@
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -3202,7 +3149,7 @@
     </row>
     <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -3225,7 +3172,7 @@
     </row>
     <row r="18" spans="1:14" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -3248,7 +3195,7 @@
     </row>
     <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -3271,7 +3218,7 @@
     </row>
     <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -3294,7 +3241,7 @@
     </row>
     <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -3315,106 +3262,62 @@
       <c r="M21" s="4"/>
       <c r="N21" s="52"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A22" t="s">
-        <v>341</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="52"/>
-    </row>
-    <row r="23" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="79"/>
+      <c r="L22" s="69"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="12"/>
+      <c r="J23"/>
+      <c r="K23"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>359</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="12"/>
       <c r="J24"/>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="12"/>
-      <c r="J25"/>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="12"/>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.5">
-      <c r="A27" s="20" t="s">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.5">
+      <c r="A25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3434,13 +3337,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73:XFD73"/>
+      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6796875" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -3475,10 +3378,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="93"/>
+      <c r="B1" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="83"/>
       <c r="D1" s="4"/>
       <c r="V1" s="4"/>
     </row>
@@ -3702,15 +3605,13 @@
       <c r="C8" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="85" t="s">
         <v>293</v>
       </c>
       <c r="E8" s="53">
         <v>0.1</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>117</v>
-      </c>
+      <c r="F8" s="39"/>
       <c r="G8" s="57" t="s">
         <v>294</v>
       </c>
@@ -3726,13 +3627,16 @@
       </c>
       <c r="M8" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F8,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N8" s="35" t="str">
         <f t="shared" ref="N8" si="2">IF(M8="sh:Literal",F8,"")</f>
-        <v>xsd:anyURI</v>
-      </c>
-      <c r="O8" s="35"/>
+        <v/>
+      </c>
+      <c r="O8" s="35" t="str">
+        <f>IF($M8="sh:IRI",IF(ISBLANK($F8),"",$F8))</f>
+        <v/>
+      </c>
       <c r="P8" s="36" t="str">
         <f t="shared" ref="P8:P24" si="3">IF($M8&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F8)-1,0)=0,"","1"))</f>
         <v/>
@@ -3754,9 +3658,7 @@
       <c r="E9" s="53">
         <v>0.1</v>
       </c>
-      <c r="F9" s="54" t="s">
-        <v>297</v>
-      </c>
+      <c r="F9" s="54"/>
       <c r="G9" s="57" t="s">
         <v>295</v>
       </c>
@@ -3780,8 +3682,8 @@
         <v/>
       </c>
       <c r="O9" s="35" t="str">
-        <f>IF($M9="sh:IRI",$F9)</f>
-        <v>ecrm:E56_Language</v>
+        <f>IF($M9="sh:IRI",IF(ISBLANK($F9),"",$F9))</f>
+        <v/>
       </c>
       <c r="P9" s="36" t="str">
         <f t="shared" si="3"/>
@@ -3798,16 +3700,16 @@
         <v>291</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E10" s="53">
         <v>0.1</v>
       </c>
       <c r="F10" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>299</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>300</v>
       </c>
       <c r="K10" s="34" t="str">
         <f t="shared" si="0"/>
@@ -3826,7 +3728,7 @@
         <v/>
       </c>
       <c r="O10" s="35" t="str">
-        <f>IF($M10="sh:IRI",$F10)</f>
+        <f>IF($M10="sh:IRI",IF(ISBLANK($F10),"",$F10))</f>
         <v>mus:M156_Title_Statement</v>
       </c>
       <c r="P10" s="36" t="str">
@@ -3843,16 +3745,16 @@
         <v>291</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="53">
         <v>0.1</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K11" s="34" t="str">
         <f t="shared" si="0"/>
@@ -3888,16 +3790,16 @@
         <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E12" s="53">
         <v>0.1</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K12" s="34" t="str">
         <f t="shared" si="0"/>
@@ -3933,16 +3835,16 @@
         <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E13" s="53">
         <v>0.1</v>
       </c>
       <c r="F13" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>306</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>307</v>
       </c>
       <c r="K13" s="34" t="str">
         <f t="shared" si="0"/>
@@ -3978,16 +3880,16 @@
         <v>291</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E14" s="53">
         <v>0.1</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K14" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4023,16 +3925,16 @@
         <v>291</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="53">
         <v>0.1</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K15" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4068,16 +3970,16 @@
         <v>291</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E16" s="53">
         <v>0.1</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K16" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4112,17 +4014,14 @@
       <c r="C17" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>319</v>
+      <c r="D17" s="84" t="s">
+        <v>318</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G17" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K17" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4134,11 +4033,11 @@
       </c>
       <c r="M17" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F17,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N17" s="35" t="str">
         <f t="shared" si="6"/>
-        <v>xsd:anyURI</v>
+        <v/>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="36" t="str">
@@ -4154,17 +4053,14 @@
       <c r="C18" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="58" t="s">
-        <v>321</v>
+      <c r="D18" s="84" t="s">
+        <v>320</v>
       </c>
       <c r="E18" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G18" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K18" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4176,11 +4072,11 @@
       </c>
       <c r="M18" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F18,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N18" s="35" t="str">
         <f t="shared" si="6"/>
-        <v>xsd:anyURI</v>
+        <v/>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="36" t="str">
@@ -4197,17 +4093,14 @@
       <c r="C19" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="58" t="s">
-        <v>323</v>
+      <c r="D19" s="84" t="s">
+        <v>322</v>
       </c>
       <c r="E19" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G19" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K19" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4219,11 +4112,11 @@
       </c>
       <c r="M19" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F19,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N19" s="35" t="str">
         <f t="shared" si="6"/>
-        <v>xsd:anyURI</v>
+        <v/>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="36" t="str">
@@ -4239,17 +4132,14 @@
       <c r="C20" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="D20" s="58" t="s">
-        <v>325</v>
+      <c r="D20" s="84" t="s">
+        <v>324</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G20" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K20" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4261,11 +4151,11 @@
       </c>
       <c r="M20" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F20,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N20" s="35" t="str">
         <f t="shared" si="6"/>
-        <v>xsd:anyURI</v>
+        <v/>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="36" t="str">
@@ -4282,7 +4172,7 @@
         <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E21" s="53">
         <v>0.1</v>
@@ -4291,7 +4181,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K21" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4324,16 +4214,16 @@
         <v>291</v>
       </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22" s="57" t="s">
         <v>341</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>342</v>
       </c>
       <c r="K22" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4360,52 +4250,49 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="69" t="str">
+    <row r="23" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="71" t="str">
         <f t="shared" si="4"/>
         <v>mus:P23</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="74"/>
+      <c r="G23" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="E23" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75" t="str">
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L23" s="75" t="str">
+      <c r="L23" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M23" s="76" t="str">
+      <c r="M23" s="77" t="str">
         <f>IF(IFERROR(VLOOKUP($F23,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N23" s="76" t="str">
+      <c r="N23" s="77" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O23" s="76">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="77" t="str">
+      <c r="O23" s="77"/>
+      <c r="P23" s="78" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y23" s="71"/>
+      <c r="Y23" s="73"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A24" s="33" t="str">
@@ -4416,16 +4303,16 @@
         <v>291</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E24" s="53" t="s">
         <v>103</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K24" s="34" t="str">
         <f t="shared" si="0"/>
@@ -4454,7 +4341,7 @@
     </row>
     <row r="26" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="51"/>
@@ -4462,156 +4349,156 @@
       <c r="P26" s="31"/>
       <c r="Y26" s="32"/>
     </row>
-    <row r="27" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="81" t="str">
+    <row r="27" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="71" t="str">
         <f t="shared" ref="A27:A29" si="8">CONCATENATE("mus:P",ROW(A27))</f>
         <v>mus:P27</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" s="72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="G27" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="E27" s="82">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F27" s="91" t="s">
-        <v>291</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86" t="str">
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="76" t="str">
         <f t="shared" ref="K27:K29" si="9">IF(LEFT($E27,SEARCH(",",$E27,1)-1)="n","",IF(LEFT($E27,SEARCH(",",$E27,1)-1)="0","",LEFT($E27,SEARCH(",",$E27,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L27" s="86" t="str">
+      <c r="L27" s="76" t="str">
         <f t="shared" ref="L27:L29" si="10">IF(RIGHT($E27,SEARCH(",",$E27,1)-1)="n","",IF(RIGHT($E27,SEARCH(",",$E27,1)-1)="0","",RIGHT($E27,SEARCH(",",$E27,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M27" s="87" t="str">
+      <c r="M27" s="77" t="str">
         <f>IF(IFERROR(VLOOKUP($F27,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N27" s="87" t="str">
+      <c r="N27" s="77" t="str">
         <f t="shared" ref="N27:N29" si="11">IF(M27="sh:Literal",F27,"")</f>
         <v/>
       </c>
-      <c r="O27" s="87" t="str">
+      <c r="O27" s="77" t="str">
         <f t="shared" ref="O27:O29" si="12">IF($M27&lt;&gt;"sh:IRI","",$F27)</f>
         <v>efrbroo:F24_Publication_Expression</v>
       </c>
-      <c r="P27" s="88" t="str">
+      <c r="P27" s="78" t="str">
         <f t="shared" ref="P27:P29" si="13">IF($M27&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F27)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="Y27" s="83"/>
-    </row>
-    <row r="28" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="81" t="str">
+      <c r="Y27" s="73"/>
+    </row>
+    <row r="28" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="71" t="str">
         <f t="shared" si="8"/>
         <v>mus:P28</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" s="72">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="E28" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>333</v>
-      </c>
       <c r="G28" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86" t="str">
+        <v>330</v>
+      </c>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="76" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L28" s="86" t="str">
+      <c r="L28" s="76" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M28" s="87" t="str">
+      <c r="M28" s="77" t="str">
         <f>IF(IFERROR(VLOOKUP($F28,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N28" s="87" t="str">
+      <c r="N28" s="77" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O28" s="87" t="str">
+      <c r="O28" s="77" t="str">
         <f t="shared" si="12"/>
         <v>ecrm:E52_Time-Span</v>
       </c>
-      <c r="P28" s="88" t="str">
+      <c r="P28" s="78" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Y28" s="83"/>
-    </row>
-    <row r="29" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="81" t="str">
+      <c r="Y28" s="73"/>
+    </row>
+    <row r="29" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="71" t="str">
         <f t="shared" si="8"/>
         <v>mus:P29</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29" s="72">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="E29" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="84" t="s">
-        <v>336</v>
-      </c>
       <c r="G29" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86" t="str">
+        <v>333</v>
+      </c>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="76" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L29" s="86" t="str">
+      <c r="L29" s="76" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M29" s="87" t="str">
+      <c r="M29" s="77" t="str">
         <f>IF(IFERROR(VLOOKUP($F29,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N29" s="87" t="str">
+      <c r="N29" s="77" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O29" s="87" t="str">
+      <c r="O29" s="77" t="str">
         <f t="shared" si="12"/>
         <v>ecrm:E7_Activity</v>
       </c>
-      <c r="P29" s="88" t="str">
+      <c r="P29" s="78" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Y29" s="83"/>
+      <c r="Y29" s="73"/>
     </row>
     <row r="31" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="51"/>
@@ -4625,19 +4512,16 @@
         <v>mus:P32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G32" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K32" s="34" t="str">
         <f t="shared" ref="K32:K33" si="15">IF(LEFT($E32,SEARCH(",",$E32,1)-1)="n","",IF(LEFT($E32,SEARCH(",",$E32,1)-1)="0","",LEFT($E32,SEARCH(",",$E32,1)-1)))</f>
@@ -4649,18 +4533,15 @@
       </c>
       <c r="M32" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F32,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N32" s="35" t="str">
         <f t="shared" ref="N32:N33" si="17">IF(M32="sh:Literal",F32,"")</f>
-        <v>xsd:anyURI</v>
-      </c>
-      <c r="O32" s="35" t="str">
-        <f t="shared" ref="O32:O33" si="18">IF($M32&lt;&gt;"sh:IRI","",$F32)</f>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="O32" s="35"/>
       <c r="P32" s="36" t="str">
-        <f t="shared" ref="P32:P33" si="19">IF($M32&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F32)-1,0)=0,"","1"))</f>
+        <f t="shared" ref="P32:P33" si="18">IF($M32&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F32)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4670,19 +4551,16 @@
         <v>mus:P33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G33" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K33" s="34" t="str">
         <f t="shared" si="15"/>
@@ -4694,24 +4572,21 @@
       </c>
       <c r="M33" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F33,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N33" s="35" t="str">
         <f t="shared" si="17"/>
-        <v>xsd:anyURI</v>
-      </c>
-      <c r="O33" s="35" t="str">
+        <v/>
+      </c>
+      <c r="O33" s="35"/>
+      <c r="P33" s="36" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="P33" s="36" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="30" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="51"/>
@@ -4721,14 +4596,14 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A36" s="33" t="str">
-        <f t="shared" ref="A36:A37" si="20">CONCATENATE("mus:P",ROW(A36))</f>
+        <f t="shared" ref="A36:A37" si="19">CONCATENATE("mus:P",ROW(A36))</f>
         <v>mus:P36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D36" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E36" s="4">
         <v>1.1000000000000001</v>
@@ -4737,17 +4612,17 @@
         <v>138</v>
       </c>
       <c r="G36" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="I36" s="65" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="I36" s="64" t="s">
+        <v>368</v>
       </c>
       <c r="K36" s="34" t="str">
-        <f t="shared" ref="K36:K37" si="21">IF(LEFT($E36,SEARCH(",",$E36,1)-1)="n","",IF(LEFT($E36,SEARCH(",",$E36,1)-1)="0","",LEFT($E36,SEARCH(",",$E36,1)-1)))</f>
+        <f t="shared" ref="K36:K37" si="20">IF(LEFT($E36,SEARCH(",",$E36,1)-1)="n","",IF(LEFT($E36,SEARCH(",",$E36,1)-1)="0","",LEFT($E36,SEARCH(",",$E36,1)-1)))</f>
         <v>1</v>
       </c>
       <c r="L36" s="34" t="str">
-        <f t="shared" ref="L36:L37" si="22">IF(RIGHT($E36,SEARCH(",",$E36,1)-1)="n","",IF(RIGHT($E36,SEARCH(",",$E36,1)-1)="0","",RIGHT($E36,SEARCH(",",$E36,1)-1)))</f>
+        <f t="shared" ref="L36:L37" si="21">IF(RIGHT($E36,SEARCH(",",$E36,1)-1)="n","",IF(RIGHT($E36,SEARCH(",",$E36,1)-1)="0","",RIGHT($E36,SEARCH(",",$E36,1)-1)))</f>
         <v>1</v>
       </c>
       <c r="M36" s="35" t="str">
@@ -4755,45 +4630,45 @@
         <v>sh:Literal</v>
       </c>
       <c r="N36" s="35" t="str">
-        <f t="shared" ref="N36" si="23">IF(M36="sh:Literal",F36,"")</f>
+        <f t="shared" ref="N36" si="22">IF(M36="sh:Literal",F36,"")</f>
         <v>xsd:integer</v>
       </c>
       <c r="O36" s="35" t="str">
-        <f t="shared" ref="O36:O37" si="24">IF($M36&lt;&gt;"sh:IRI","",$F36)</f>
+        <f t="shared" ref="O36:O37" si="23">IF($M36&lt;&gt;"sh:IRI","",$F36)</f>
         <v/>
       </c>
       <c r="P36" s="36" t="str">
-        <f t="shared" ref="P36:P37" si="25">IF($M36&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F36)-1,0)=0,"","1"))</f>
+        <f t="shared" ref="P36:P37" si="24">IF($M36&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F36)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A37" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>mus:P37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D37" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="G37" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="I37" s="65"/>
+        <v>369</v>
+      </c>
+      <c r="G37" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="I37" s="64"/>
       <c r="K37" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L37" s="34" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L37" s="34" t="str">
-        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M37" s="35" t="str">
@@ -4801,21 +4676,21 @@
         <v>sh:IRI</v>
       </c>
       <c r="N37" s="35" t="str">
-        <f t="shared" ref="N37" si="26">IF(M37="sh:Literal",F37,"")</f>
+        <f t="shared" ref="N37" si="25">IF(M37="sh:Literal",F37,"")</f>
         <v/>
       </c>
       <c r="O37" s="35" t="str">
+        <f t="shared" si="23"/>
+        <v>mus:M23_Casting_Detail</v>
+      </c>
+      <c r="P37" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>mus:M23_Casting_Detail</v>
-      </c>
-      <c r="P37" s="36" t="str">
-        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="51"/>
@@ -4825,152 +4700,135 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A40" s="33" t="str">
-        <f t="shared" ref="A40:A45" si="27">CONCATENATE("mus:P",ROW(A40))</f>
+        <f t="shared" ref="A40:A45" si="26">CONCATENATE("mus:P",ROW(A40))</f>
         <v>mus:P40</v>
       </c>
       <c r="C40" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I40" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="D40" t="s">
-        <v>375</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="57" t="s">
-        <v>376</v>
-      </c>
-      <c r="I40" s="57" t="s">
-        <v>377</v>
-      </c>
       <c r="K40" s="34" t="str">
-        <f t="shared" ref="K40:K44" si="28">IF(LEFT($E40,SEARCH(",",$E40,1)-1)="n","",IF(LEFT($E40,SEARCH(",",$E40,1)-1)="0","",LEFT($E40,SEARCH(",",$E40,1)-1)))</f>
-        <v/>
+        <f t="shared" ref="K40:K44" si="27">IF(LEFT($E40,SEARCH(",",$E40,1)-1)="n","",IF(LEFT($E40,SEARCH(",",$E40,1)-1)="0","",LEFT($E40,SEARCH(",",$E40,1)-1)))</f>
+        <v>1</v>
       </c>
       <c r="L40" s="34" t="str">
-        <f t="shared" ref="L40:L45" si="29">IF(RIGHT($E40,SEARCH(",",$E40,1)-1)="n","",IF(RIGHT($E40,SEARCH(",",$E40,1)-1)="0","",RIGHT($E40,SEARCH(",",$E40,1)-1)))</f>
+        <f t="shared" ref="L40:L45" si="28">IF(RIGHT($E40,SEARCH(",",$E40,1)-1)="n","",IF(RIGHT($E40,SEARCH(",",$E40,1)-1)="0","",RIGHT($E40,SEARCH(",",$E40,1)-1)))</f>
         <v>1</v>
       </c>
       <c r="M40" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F40,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N40" s="35" t="str">
-        <f t="shared" ref="N40" si="30">IF(M40="sh:Literal",F40,"")</f>
-        <v>xsd:anyURI</v>
-      </c>
-      <c r="O40" s="35" t="str">
-        <f t="shared" ref="O40:O45" si="31">IF($M40&lt;&gt;"sh:IRI","",$F40)</f>
-        <v/>
-      </c>
+        <f t="shared" ref="N40" si="29">IF(M40="sh:Literal",F40,"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="35"/>
       <c r="P40" s="36" t="str">
-        <f t="shared" ref="P40:P45" si="32">IF($M40&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F40)-1,0)=0,"","1"))</f>
+        <f t="shared" ref="P40:P45" si="30">IF($M40&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F40)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A41" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>mus:P41</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E41" s="4">
         <v>0.1</v>
       </c>
-      <c r="F41" s="67" t="s">
-        <v>138</v>
-      </c>
+      <c r="F41" s="66"/>
       <c r="G41" s="57" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K41" s="34" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L41" s="34" t="str">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="L41" s="34" t="str">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="M41" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F41,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N41" s="35" t="str">
-        <f t="shared" ref="N41:N42" si="33">IF(M41="sh:Literal",F41,"")</f>
-        <v>xsd:integer</v>
-      </c>
-      <c r="O41" s="35" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
+        <f t="shared" ref="N41:N42" si="31">IF(M41="sh:Literal",F41,"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="35"/>
       <c r="P41" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A42" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>mus:P42</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E42" s="4">
         <v>0.1</v>
       </c>
-      <c r="F42" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G42" s="57" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K42" s="34" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L42" s="34" t="str">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="L42" s="34" t="str">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="M42" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F42,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
+        <v>sh:IRI</v>
       </c>
       <c r="N42" s="35" t="str">
-        <f t="shared" si="33"/>
-        <v>xsd:anyURI</v>
-      </c>
-      <c r="O42" s="35" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
+      <c r="O42" s="35"/>
       <c r="P42" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A43" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>mus:P43</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D43" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E43" s="4">
         <v>1.1000000000000001</v>
@@ -4979,17 +4837,17 @@
         <v>138</v>
       </c>
       <c r="G43" s="57" t="s">
-        <v>382</v>
-      </c>
-      <c r="I43" s="66" t="s">
-        <v>383</v>
+        <v>378</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>379</v>
       </c>
       <c r="K43" s="34" t="str">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="34" t="str">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="L43" s="34" t="str">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="M43" s="35" t="str">
@@ -4997,28 +4855,28 @@
         <v>sh:Literal</v>
       </c>
       <c r="N43" s="35" t="str">
-        <f t="shared" ref="N43:N44" si="34">IF(M43="sh:Literal",F43,"")</f>
+        <f t="shared" ref="N43:N44" si="32">IF(M43="sh:Literal",F43,"")</f>
         <v>xsd:integer</v>
       </c>
       <c r="O43" s="35" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="O40:O45" si="33">IF($M43&lt;&gt;"sh:IRI","",$F43)</f>
         <v/>
       </c>
       <c r="P43" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A44" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>mus:P44</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E44" s="4">
         <v>0.1</v>
@@ -5027,15 +4885,15 @@
         <v>101</v>
       </c>
       <c r="G44" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="I44" s="66"/>
+        <v>325</v>
+      </c>
+      <c r="I44" s="65"/>
       <c r="K44" s="34" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L44" s="34" t="str">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="L44" s="34" t="str">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="M44" s="35" t="str">
@@ -5043,662 +4901,545 @@
         <v>sh:Literal</v>
       </c>
       <c r="N44" s="35" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>xsd:string</v>
       </c>
       <c r="O44" s="35" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P44" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A45" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>mus:P45</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E45" s="4">
         <v>0.1</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G45" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="I45" s="66"/>
-      <c r="K45" s="68"/>
+        <v>381</v>
+      </c>
+      <c r="I45" s="65"/>
+      <c r="K45" s="67"/>
       <c r="L45" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="M45" s="35" t="str">
         <f>IF(IFERROR(VLOOKUP($F45,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N45" s="35" t="str">
+        <f t="shared" ref="N45" si="34">IF(M45="sh:Literal",F45,"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="35"/>
+      <c r="P45" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A48" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="F48" s="42"/>
+      <c r="G48" s="51"/>
+      <c r="J48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Y48" s="32"/>
+    </row>
+    <row r="49" spans="1:25" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A49" s="33" t="str">
+        <f>CONCATENATE("mus:P",ROW(A49))</f>
+        <v>mus:P49</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="J49" s="61"/>
+      <c r="K49" s="34" t="str">
+        <f t="shared" ref="K49" si="35">IF(LEFT($E49,SEARCH(",",$E49,1)-1)="n","",IF(LEFT($E49,SEARCH(",",$E49,1)-1)="0","",LEFT($E49,SEARCH(",",$E49,1)-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="L49" s="34" t="str">
+        <f t="shared" ref="L49" si="36">IF(RIGHT($E49,SEARCH(",",$E49,1)-1)="n","",IF(RIGHT($E49,SEARCH(",",$E49,1)-1)="0","",RIGHT($E49,SEARCH(",",$E49,1)-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="M49" s="35" t="str">
+        <f>IF(IFERROR(VLOOKUP($F49,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N45" s="35" t="str">
-        <f t="shared" ref="N45" si="35">IF(M45="sh:Literal",F45,"")</f>
-        <v>xsd:anyURI</v>
-      </c>
-      <c r="O45" s="35" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="P45" s="36" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A47" s="30" t="s">
+      <c r="N49" s="34" t="str">
+        <f t="shared" ref="N49" si="37">IF(M49="sh:Literal",F49,"")</f>
+        <v>xsd:string</v>
+      </c>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34" t="str">
+        <f t="shared" ref="P49" si="38">IF($M49&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F49)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="Y49" s="62"/>
+    </row>
+    <row r="51" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A51" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="51"/>
-      <c r="J47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Y47" s="32"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A48" s="33" t="str">
-        <f>CONCATENATE("mus:P",ROW(A48))</f>
-        <v>mus:P48</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="51"/>
+      <c r="J51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Y51" s="32"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A52" s="33" t="str">
+        <f>CONCATENATE("mus:P",ROW(A52))</f>
+        <v>mus:P52</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E52" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="K48" s="34" t="str">
-        <f t="shared" ref="K48" si="36">IF(LEFT($E48,SEARCH(",",$E48,1)-1)="n","",IF(LEFT($E48,SEARCH(",",$E48,1)-1)="0","",LEFT($E48,SEARCH(",",$E48,1)-1)))</f>
+      <c r="F52" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="K52" s="34" t="str">
+        <f t="shared" ref="K52" si="39">IF(LEFT($E52,SEARCH(",",$E52,1)-1)="n","",IF(LEFT($E52,SEARCH(",",$E52,1)-1)="0","",LEFT($E52,SEARCH(",",$E52,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L48" s="34" t="str">
-        <f t="shared" ref="L48" si="37">IF(RIGHT($E48,SEARCH(",",$E48,1)-1)="n","",IF(RIGHT($E48,SEARCH(",",$E48,1)-1)="0","",RIGHT($E48,SEARCH(",",$E48,1)-1)))</f>
+      <c r="L52" s="34" t="str">
+        <f t="shared" ref="L52" si="40">IF(RIGHT($E52,SEARCH(",",$E52,1)-1)="n","",IF(RIGHT($E52,SEARCH(",",$E52,1)-1)="0","",RIGHT($E52,SEARCH(",",$E52,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M48" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F48,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M52" s="35" t="str">
+        <f>IF(IFERROR(VLOOKUP($F52,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N48" s="34" t="str">
-        <f t="shared" ref="N48" si="38">IF(M48="sh:Literal",F48,"")</f>
-        <v>xsd:anyURI</v>
-      </c>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34" t="str">
-        <f t="shared" ref="P48" si="39">IF($M48&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F48)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A50" s="30" t="s">
+      <c r="N52" s="34" t="str">
+        <f t="shared" ref="N52" si="41">IF(M52="sh:Literal",F52,"")</f>
+        <v>xsd:string</v>
+      </c>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34" t="str">
+        <f t="shared" ref="P52" si="42">IF($M52&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F52)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A54" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="51"/>
-      <c r="J50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Y50" s="32"/>
-    </row>
-    <row r="51" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A51" s="33" t="str">
-        <f>CONCATENATE("mus:P",ROW(A51))</f>
-        <v>mus:P51</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="F54" s="42"/>
+      <c r="G54" s="51"/>
+      <c r="J54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Y54" s="32"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A55" s="33" t="str">
+        <f>CONCATENATE("mus:P",ROW(A55))</f>
+        <v>mus:P55</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E55" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F55" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="J51" s="62"/>
-      <c r="K51" s="34" t="str">
-        <f t="shared" ref="K51" si="40">IF(LEFT($E51,SEARCH(",",$E51,1)-1)="n","",IF(LEFT($E51,SEARCH(",",$E51,1)-1)="0","",LEFT($E51,SEARCH(",",$E51,1)-1)))</f>
+      <c r="G55" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="K55" s="34" t="str">
+        <f t="shared" ref="K55" si="43">IF(LEFT($E55,SEARCH(",",$E55,1)-1)="n","",IF(LEFT($E55,SEARCH(",",$E55,1)-1)="0","",LEFT($E55,SEARCH(",",$E55,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L51" s="34" t="str">
-        <f t="shared" ref="L51" si="41">IF(RIGHT($E51,SEARCH(",",$E51,1)-1)="n","",IF(RIGHT($E51,SEARCH(",",$E51,1)-1)="0","",RIGHT($E51,SEARCH(",",$E51,1)-1)))</f>
+      <c r="L55" s="34" t="str">
+        <f t="shared" ref="L55" si="44">IF(RIGHT($E55,SEARCH(",",$E55,1)-1)="n","",IF(RIGHT($E55,SEARCH(",",$E55,1)-1)="0","",RIGHT($E55,SEARCH(",",$E55,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M51" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F51,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M55" s="35" t="str">
+        <f>IF(IFERROR(VLOOKUP($F55,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N51" s="34" t="str">
-        <f t="shared" ref="N51" si="42">IF(M51="sh:Literal",F51,"")</f>
+      <c r="N55" s="34" t="str">
+        <f t="shared" ref="N55" si="45">IF(M55="sh:Literal",F55,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34" t="str">
-        <f t="shared" ref="P51" si="43">IF($M51&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F51)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="Y51" s="63"/>
-    </row>
-    <row r="53" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A53" s="30" t="s">
+      <c r="O55" s="34"/>
+      <c r="P55" s="34" t="str">
+        <f t="shared" ref="P55" si="46">IF($M55&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F55)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A57" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="F53" s="42"/>
-      <c r="G53" s="51"/>
-      <c r="J53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Y53" s="32"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A54" s="33" t="str">
-        <f>CONCATENATE("mus:P",ROW(A54))</f>
-        <v>mus:P54</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="F57" s="42"/>
+      <c r="G57" s="51"/>
+      <c r="J57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Y57" s="32"/>
+    </row>
+    <row r="58" spans="1:25" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A58" s="33" t="str">
+        <f>CONCATENATE("mus:P",ROW(A58))</f>
+        <v>mus:P58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E58" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F58" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="K54" s="34" t="str">
-        <f t="shared" ref="K54" si="44">IF(LEFT($E54,SEARCH(",",$E54,1)-1)="n","",IF(LEFT($E54,SEARCH(",",$E54,1)-1)="0","",LEFT($E54,SEARCH(",",$E54,1)-1)))</f>
+      <c r="G58" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="J58" s="61"/>
+      <c r="K58" s="34" t="str">
+        <f t="shared" ref="K58" si="47">IF(LEFT($E58,SEARCH(",",$E58,1)-1)="n","",IF(LEFT($E58,SEARCH(",",$E58,1)-1)="0","",LEFT($E58,SEARCH(",",$E58,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L54" s="34" t="str">
-        <f t="shared" ref="L54" si="45">IF(RIGHT($E54,SEARCH(",",$E54,1)-1)="n","",IF(RIGHT($E54,SEARCH(",",$E54,1)-1)="0","",RIGHT($E54,SEARCH(",",$E54,1)-1)))</f>
+      <c r="L58" s="34" t="str">
+        <f t="shared" ref="L58" si="48">IF(RIGHT($E58,SEARCH(",",$E58,1)-1)="n","",IF(RIGHT($E58,SEARCH(",",$E58,1)-1)="0","",RIGHT($E58,SEARCH(",",$E58,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M54" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F54,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M58" s="35" t="str">
+        <f>IF(IFERROR(VLOOKUP($F58,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N54" s="34" t="str">
-        <f t="shared" ref="N54" si="46">IF(M54="sh:Literal",F54,"")</f>
+      <c r="N58" s="34" t="str">
+        <f t="shared" ref="N58" si="49">IF(M58="sh:Literal",F58,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34" t="str">
-        <f t="shared" ref="P54" si="47">IF($M54&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F54)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A56" s="30" t="s">
+      <c r="O58" s="34"/>
+      <c r="P58" s="34" t="str">
+        <f t="shared" ref="P58" si="50">IF($M58&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F58)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="Y58" s="62"/>
+    </row>
+    <row r="59" spans="1:25" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="J59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Y59" s="62"/>
+    </row>
+    <row r="60" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A60" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="51"/>
-      <c r="J56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Y56" s="32"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A57" s="33" t="str">
-        <f>CONCATENATE("mus:P",ROW(A57))</f>
-        <v>mus:P57</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F60" s="42"/>
+      <c r="G60" s="51"/>
+      <c r="J60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Y60" s="32"/>
+    </row>
+    <row r="61" spans="1:25" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A61" s="33" t="str">
+        <f>CONCATENATE("mus:P",ROW(A61))</f>
+        <v>mus:P61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E61" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F61" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="K57" s="34" t="str">
-        <f t="shared" ref="K57" si="48">IF(LEFT($E57,SEARCH(",",$E57,1)-1)="n","",IF(LEFT($E57,SEARCH(",",$E57,1)-1)="0","",LEFT($E57,SEARCH(",",$E57,1)-1)))</f>
+      <c r="G61" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="J61" s="61"/>
+      <c r="K61" s="34" t="str">
+        <f t="shared" ref="K61" si="51">IF(LEFT($E61,SEARCH(",",$E61,1)-1)="n","",IF(LEFT($E61,SEARCH(",",$E61,1)-1)="0","",LEFT($E61,SEARCH(",",$E61,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L57" s="34" t="str">
-        <f t="shared" ref="L57" si="49">IF(RIGHT($E57,SEARCH(",",$E57,1)-1)="n","",IF(RIGHT($E57,SEARCH(",",$E57,1)-1)="0","",RIGHT($E57,SEARCH(",",$E57,1)-1)))</f>
+      <c r="L61" s="34" t="str">
+        <f t="shared" ref="L61" si="52">IF(RIGHT($E61,SEARCH(",",$E61,1)-1)="n","",IF(RIGHT($E61,SEARCH(",",$E61,1)-1)="0","",RIGHT($E61,SEARCH(",",$E61,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M57" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F57,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M61" s="35" t="str">
+        <f>IF(IFERROR(VLOOKUP($F61,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N57" s="34" t="str">
-        <f t="shared" ref="N57" si="50">IF(M57="sh:Literal",F57,"")</f>
+      <c r="N61" s="34" t="str">
+        <f t="shared" ref="N61" si="53">IF(M61="sh:Literal",F61,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34" t="str">
-        <f t="shared" ref="P57" si="51">IF($M57&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F57)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A59" s="30" t="s">
+      <c r="O61" s="34"/>
+      <c r="P61" s="34" t="str">
+        <f t="shared" ref="P61" si="54">IF($M61&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F61)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="Y61" s="62"/>
+    </row>
+    <row r="62" spans="1:25" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="F62" s="59"/>
+      <c r="G62" s="60"/>
+      <c r="J62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Y62" s="62"/>
+    </row>
+    <row r="63" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A63" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="51"/>
-      <c r="J59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Y59" s="32"/>
-    </row>
-    <row r="60" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A60" s="33" t="str">
-        <f>CONCATENATE("mus:P",ROW(A60))</f>
-        <v>mus:P60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="F63" s="42"/>
+      <c r="G63" s="51"/>
+      <c r="J63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Y63" s="32"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A64" s="33" t="str">
+        <f>CONCATENATE("mus:P",ROW(A64))</f>
+        <v>mus:P64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>316</v>
+      </c>
+      <c r="D64" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E64" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F64" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G60" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="J60" s="62"/>
-      <c r="K60" s="34" t="str">
-        <f t="shared" ref="K60" si="52">IF(LEFT($E60,SEARCH(",",$E60,1)-1)="n","",IF(LEFT($E60,SEARCH(",",$E60,1)-1)="0","",LEFT($E60,SEARCH(",",$E60,1)-1)))</f>
+      <c r="G64" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="K64" s="34" t="str">
+        <f t="shared" ref="K64" si="55">IF(LEFT($E64,SEARCH(",",$E64,1)-1)="n","",IF(LEFT($E64,SEARCH(",",$E64,1)-1)="0","",LEFT($E64,SEARCH(",",$E64,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L60" s="34" t="str">
-        <f t="shared" ref="L60" si="53">IF(RIGHT($E60,SEARCH(",",$E60,1)-1)="n","",IF(RIGHT($E60,SEARCH(",",$E60,1)-1)="0","",RIGHT($E60,SEARCH(",",$E60,1)-1)))</f>
+      <c r="L64" s="34" t="str">
+        <f t="shared" ref="L64" si="56">IF(RIGHT($E64,SEARCH(",",$E64,1)-1)="n","",IF(RIGHT($E64,SEARCH(",",$E64,1)-1)="0","",RIGHT($E64,SEARCH(",",$E64,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M60" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F60,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M64" s="35" t="str">
+        <f>IF(IFERROR(VLOOKUP($F64,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N60" s="34" t="str">
-        <f t="shared" ref="N60" si="54">IF(M60="sh:Literal",F60,"")</f>
+      <c r="N64" s="34" t="str">
+        <f t="shared" ref="N64" si="57">IF(M64="sh:Literal",F64,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34" t="str">
-        <f t="shared" ref="P60" si="55">IF($M60&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F60)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="Y60" s="63"/>
-    </row>
-    <row r="61" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="F61" s="60"/>
-      <c r="G61" s="61"/>
-      <c r="J61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Y61" s="63"/>
-    </row>
-    <row r="62" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A62" s="30" t="s">
+      <c r="O64" s="34"/>
+      <c r="P64" s="34" t="str">
+        <f t="shared" ref="P64" si="58">IF($M64&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F64)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A66" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="F62" s="42"/>
-      <c r="G62" s="51"/>
-      <c r="J62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Y62" s="32"/>
-    </row>
-    <row r="63" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A63" s="33" t="str">
-        <f>CONCATENATE("mus:P",ROW(A63))</f>
-        <v>mus:P63</v>
-      </c>
-      <c r="C63" t="s">
-        <v>314</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="F66" s="42"/>
+      <c r="G66" s="51"/>
+      <c r="J66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Y66" s="32"/>
+    </row>
+    <row r="67" spans="1:25" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A67" s="33" t="str">
+        <f t="shared" ref="A67:A68" si="59">CONCATENATE("mus:P",ROW(A67))</f>
+        <v>mus:P67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>340</v>
+      </c>
+      <c r="D67" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E67">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="F67" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="J63" s="62"/>
-      <c r="K63" s="34" t="str">
-        <f t="shared" ref="K63" si="56">IF(LEFT($E63,SEARCH(",",$E63,1)-1)="n","",IF(LEFT($E63,SEARCH(",",$E63,1)-1)="0","",LEFT($E63,SEARCH(",",$E63,1)-1)))</f>
+      <c r="G67" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="J67" s="61"/>
+      <c r="K67" s="34" t="str">
+        <f t="shared" ref="K67:K68" si="60">IF(LEFT($E67,SEARCH(",",$E67,1)-1)="n","",IF(LEFT($E67,SEARCH(",",$E67,1)-1)="0","",LEFT($E67,SEARCH(",",$E67,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L63" s="34" t="str">
-        <f t="shared" ref="L63" si="57">IF(RIGHT($E63,SEARCH(",",$E63,1)-1)="n","",IF(RIGHT($E63,SEARCH(",",$E63,1)-1)="0","",RIGHT($E63,SEARCH(",",$E63,1)-1)))</f>
+      <c r="L67" s="34" t="str">
+        <f t="shared" ref="L67:L68" si="61">IF(RIGHT($E67,SEARCH(",",$E67,1)-1)="n","",IF(RIGHT($E67,SEARCH(",",$E67,1)-1)="0","",RIGHT($E67,SEARCH(",",$E67,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M63" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F63,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M67" s="35" t="str">
+        <f>IF(IFERROR(VLOOKUP($F67,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N63" s="34" t="str">
-        <f t="shared" ref="N63" si="58">IF(M63="sh:Literal",F63,"")</f>
+      <c r="N67" s="34" t="str">
+        <f t="shared" ref="N67:N68" si="62">IF(M67="sh:Literal",F67,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34" t="str">
-        <f t="shared" ref="P63" si="59">IF($M63&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F63)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="Y63" s="63"/>
-    </row>
-    <row r="64" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="F64" s="60"/>
-      <c r="G64" s="61"/>
-      <c r="J64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Y64" s="63"/>
-    </row>
-    <row r="65" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A65" s="30" t="s">
+      <c r="O67" s="34"/>
+      <c r="P67" s="34" t="str">
+        <f t="shared" ref="P67:P68" si="63">IF($M67&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F67)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="Y67" s="62"/>
+    </row>
+    <row r="68" spans="1:25" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A68" s="33" t="str">
+        <f t="shared" si="59"/>
+        <v>mus:P68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" t="s">
+        <v>356</v>
+      </c>
+      <c r="E68">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="J68" s="61"/>
+      <c r="K68" s="34" t="str">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="L68" s="34" t="str">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="35" t="str">
+        <f>IF(IFERROR(VLOOKUP($F68,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N68" s="35" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="O68" s="35"/>
+      <c r="P68" s="36" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="Y68" s="62"/>
+    </row>
+    <row r="69" spans="1:25" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+      <c r="J69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Y69" s="62"/>
+    </row>
+    <row r="70" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A70" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="F65" s="42"/>
-      <c r="G65" s="51"/>
-      <c r="J65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Y65" s="32"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="A66" s="33" t="str">
-        <f>CONCATENATE("mus:P",ROW(A66))</f>
-        <v>mus:P66</v>
-      </c>
-      <c r="C66" t="s">
-        <v>317</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="4">
+      <c r="F70" s="42"/>
+      <c r="G70" s="51"/>
+      <c r="J70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Y70" s="32"/>
+    </row>
+    <row r="71" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="71" t="str">
+        <f>CONCATENATE("mus:P",ROW(A71))</f>
+        <v>mus:P71</v>
+      </c>
+      <c r="C71" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="E71" s="73">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F66" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="K66" s="34" t="str">
-        <f t="shared" ref="K66" si="60">IF(LEFT($E66,SEARCH(",",$E66,1)-1)="n","",IF(LEFT($E66,SEARCH(",",$E66,1)-1)="0","",LEFT($E66,SEARCH(",",$E66,1)-1)))</f>
+      <c r="F71" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="G71" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="76" t="str">
+        <f t="shared" ref="K71" si="64">IF(LEFT($E71,SEARCH(",",$E71,1)-1)="n","",IF(LEFT($E71,SEARCH(",",$E71,1)-1)="0","",LEFT($E71,SEARCH(",",$E71,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L66" s="34" t="str">
-        <f t="shared" ref="L66" si="61">IF(RIGHT($E66,SEARCH(",",$E66,1)-1)="n","",IF(RIGHT($E66,SEARCH(",",$E66,1)-1)="0","",RIGHT($E66,SEARCH(",",$E66,1)-1)))</f>
+      <c r="L71" s="76" t="str">
+        <f t="shared" ref="L71" si="65">IF(RIGHT($E71,SEARCH(",",$E71,1)-1)="n","",IF(RIGHT($E71,SEARCH(",",$E71,1)-1)="0","",RIGHT($E71,SEARCH(",",$E71,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M66" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F66,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M71" s="77" t="str">
+        <f>IF(IFERROR(VLOOKUP($F71,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N66" s="34" t="str">
-        <f t="shared" ref="N66" si="62">IF(M66="sh:Literal",F66,"")</f>
-        <v>xsd:string</v>
-      </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34" t="str">
-        <f t="shared" ref="P66" si="63">IF($M66&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F66)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A68" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="F68" s="42"/>
-      <c r="G68" s="51"/>
-      <c r="J68" s="31"/>
-      <c r="P68" s="31"/>
-      <c r="Y68" s="32"/>
-    </row>
-    <row r="69" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A69" s="33" t="str">
-        <f t="shared" ref="A69:A70" si="64">CONCATENATE("mus:P",ROW(A69))</f>
-        <v>mus:P69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>341</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G69" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="J69" s="62"/>
-      <c r="K69" s="34" t="str">
-        <f t="shared" ref="K69:K70" si="65">IF(LEFT($E69,SEARCH(",",$E69,1)-1)="n","",IF(LEFT($E69,SEARCH(",",$E69,1)-1)="0","",LEFT($E69,SEARCH(",",$E69,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L69" s="34" t="str">
-        <f t="shared" ref="L69:L70" si="66">IF(RIGHT($E69,SEARCH(",",$E69,1)-1)="n","",IF(RIGHT($E69,SEARCH(",",$E69,1)-1)="0","",RIGHT($E69,SEARCH(",",$E69,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="M69" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F69,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
-      </c>
-      <c r="N69" s="34" t="str">
-        <f t="shared" ref="N69:N70" si="67">IF(M69="sh:Literal",F69,"")</f>
-        <v>xsd:string</v>
-      </c>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34" t="str">
-        <f t="shared" ref="P69:P70" si="68">IF($M69&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F69)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="Y69" s="63"/>
-    </row>
-    <row r="70" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A70" s="33" t="str">
-        <f t="shared" si="64"/>
-        <v>mus:P70</v>
-      </c>
-      <c r="C70" t="s">
-        <v>341</v>
-      </c>
-      <c r="D70" t="s">
-        <v>358</v>
-      </c>
-      <c r="E70">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F70" t="s">
-        <v>359</v>
-      </c>
-      <c r="G70" s="57" t="s">
-        <v>360</v>
-      </c>
-      <c r="J70" s="62"/>
-      <c r="K70" s="34" t="str">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="L70" s="34" t="str">
-        <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-      <c r="M70" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F70,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:IRI</v>
-      </c>
-      <c r="N70" s="35" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="O70" s="35" t="str">
-        <f t="shared" ref="O70" si="69">IF($M70&lt;&gt;"sh:IRI","",$F70)</f>
-        <v>ecrm:E55_Type</v>
-      </c>
-      <c r="P70" s="36" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="Y70" s="63"/>
-    </row>
-    <row r="71" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="J71" s="62"/>
-      <c r="P71" s="62"/>
-      <c r="Y71" s="63"/>
-    </row>
-    <row r="72" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A72" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="51"/>
-      <c r="J72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Y72" s="32"/>
-    </row>
-    <row r="73" spans="1:25" s="82" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="81" t="str">
-        <f>CONCATENATE("mus:P",ROW(A73))</f>
-        <v>mus:P73</v>
-      </c>
-      <c r="C73" s="84" t="s">
-        <v>333</v>
-      </c>
-      <c r="D73" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="E73" s="83">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F73" s="84" t="s">
-        <v>357</v>
-      </c>
-      <c r="G73" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="86" t="str">
-        <f t="shared" ref="K73" si="70">IF(LEFT($E73,SEARCH(",",$E73,1)-1)="n","",IF(LEFT($E73,SEARCH(",",$E73,1)-1)="0","",LEFT($E73,SEARCH(",",$E73,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L73" s="86" t="str">
-        <f t="shared" ref="L73" si="71">IF(RIGHT($E73,SEARCH(",",$E73,1)-1)="n","",IF(RIGHT($E73,SEARCH(",",$E73,1)-1)="0","",RIGHT($E73,SEARCH(",",$E73,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="M73" s="87" t="str">
-        <f>IF(IFERROR(VLOOKUP($F73,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
-      </c>
-      <c r="N73" s="86" t="str">
-        <f t="shared" ref="N73" si="72">IF(M73="sh:Literal",F73,"")</f>
+      <c r="N71" s="76" t="str">
+        <f t="shared" ref="N71" si="66">IF(M71="sh:Literal",F71,"")</f>
         <v>xsd:gYear</v>
       </c>
-      <c r="O73" s="86"/>
-      <c r="P73" s="86" t="str">
-        <f t="shared" ref="P73" si="73">IF($M73&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F73)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="Y73" s="83"/>
-    </row>
-    <row r="75" spans="1:25" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A75" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F75" s="42"/>
-      <c r="G75" s="51"/>
-      <c r="J75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Y75" s="32"/>
-    </row>
-    <row r="76" spans="1:25" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="A76" s="33" t="str">
-        <f>CONCATENATE("mus:P",ROW(A76))</f>
-        <v>mus:P76</v>
-      </c>
-      <c r="C76" t="s">
-        <v>359</v>
-      </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F76" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="J76" s="62"/>
-      <c r="K76" s="34" t="str">
-        <f t="shared" ref="K76" si="74">IF(LEFT($E76,SEARCH(",",$E76,1)-1)="n","",IF(LEFT($E76,SEARCH(",",$E76,1)-1)="0","",LEFT($E76,SEARCH(",",$E76,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L76" s="34" t="str">
-        <f t="shared" ref="L76" si="75">IF(RIGHT($E76,SEARCH(",",$E76,1)-1)="n","",IF(RIGHT($E76,SEARCH(",",$E76,1)-1)="0","",RIGHT($E76,SEARCH(",",$E76,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="M76" s="35" t="str">
-        <f>IF(IFERROR(VLOOKUP($F76,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
-      </c>
-      <c r="N76" s="34" t="str">
-        <f t="shared" ref="N76" si="76">IF(M76="sh:Literal",F76,"")</f>
-        <v>xsd:string</v>
-      </c>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34" t="str">
-        <f t="shared" ref="P76" si="77">IF($M76&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F76)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="Y76" s="63"/>
+      <c r="O71" s="76"/>
+      <c r="P71" s="76" t="str">
+        <f t="shared" ref="P71" si="67">IF($M71&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F71)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="Y71" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6023,7 +5764,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E37" t="s">
         <v>173</v>
@@ -6591,6 +6332,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CA02A89CE11044785B41DB7D4384776" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4dcf3fa4ac8135cd66f91417748f5a35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3849bf21-84b7-460b-82e9-cbf687250e11" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4cf0bcdf0f7913f17c8861fe3578f2" ns2:_="" ns3:_="">
     <xsd:import namespace="3849bf21-84b7-460b-82e9-cbf687250e11"/>
@@ -6741,24 +6499,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04427146-8234-4B33-88E8-C92564CE7E4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3849bf21-84b7-460b-82e9-cbf687250e11"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA31ECF-449E-4B82-AFA9-523E93438354}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8339569E-3BB2-47E5-8109-9BF2F317B64C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6775,29 +6541,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA31ECF-449E-4B82-AFA9-523E93438354}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04427146-8234-4B33-88E8-C92564CE7E4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3849bf21-84b7-460b-82e9-cbf687250e11"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>